--- a/PDCA/resources/cppi.xlsx
+++ b/PDCA/resources/cppi.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Ft</t>
   </si>
@@ -72,7 +72,19 @@
     <t>Wt</t>
   </si>
   <si>
-    <t>risk anteil</t>
+    <t>leverage</t>
+  </si>
+  <si>
+    <t>riskfree</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>risikofreude</t>
+  </si>
+  <si>
+    <t>planConf.risklessAssetInterest</t>
   </si>
 </sst>
 </file>
@@ -80,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -166,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -947,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,6 +983,9 @@
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -995,6 +1010,9 @@
       <c r="B5" s="2">
         <v>2</v>
       </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1004,7 +1022,7 @@
         <v>0.3</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1015,6 +1033,14 @@
         <v>365</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
@@ -1047,7 +1073,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="5">
         <f>B3</f>
@@ -1075,7 +1101,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="5">
         <f>B10-($B$3/$B$7)</f>
@@ -1111,26 +1137,26 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5">
-        <f t="shared" ref="B12:B33" si="0">B11-($B$3/$B$7)</f>
+        <f>B11-($B$3/$B$7)</f>
         <v>0.9945205479452055</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ref="C12:C33" si="1">($B$1)/((1+$B$2)^B12)</f>
+        <f t="shared" ref="C12:C33" si="0">($B$1)/((1+$B$2)^B12)</f>
         <v>95.263559914736589</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ref="D12:D20" si="2">MAX(I12-C12,0)</f>
+        <f t="shared" ref="D12:D20" si="1">MAX(I12-C12,0)</f>
         <v>5.5208377482354649</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ref="E12:E20" si="3">MIN($B$5*D12,$B$6*I12)</f>
+        <f t="shared" ref="E12:E20" si="2">MIN($B$5*D12,$B$6*I12)</f>
         <v>11.04167549647093</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ref="F12:F20" si="4">I12-E12</f>
+        <f t="shared" ref="F12:F20" si="3">I12-E12</f>
         <v>89.742722166501125</v>
       </c>
       <c r="G12" s="2">
@@ -1147,26 +1173,26 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B13:B33" si="4">B12-($B$3/$B$7)</f>
         <v>0.99178082191780825</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>95.276294806214409</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>95.276294806214409</v>
-      </c>
-      <c r="D13" s="1">
+        <v>6.0219940599869801</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>6.0219940599869801</v>
-      </c>
-      <c r="E13" s="1">
+        <v>12.04398811997396</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="3"/>
-        <v>12.04398811997396</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="4"/>
         <v>89.254300746227429</v>
       </c>
       <c r="G13" s="2">
@@ -1183,26 +1209,26 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.989041095890411</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>95.289031400100399</v>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>95.289031400100399</v>
-      </c>
-      <c r="D14" s="1">
+        <v>6.0211890361047864</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="2"/>
-        <v>6.0211890361047864</v>
-      </c>
-      <c r="E14" s="1">
+        <v>12.042378072209573</v>
+      </c>
+      <c r="F14" s="1">
         <f t="shared" si="3"/>
-        <v>12.042378072209573</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="4"/>
         <v>89.267842363995612</v>
       </c>
       <c r="G14" s="2">
@@ -1219,26 +1245,26 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.98630136986301375</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>95.301769696622088</v>
+      </c>
+      <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>95.301769696622088</v>
-      </c>
-      <c r="D15" s="1">
+        <v>6.0203841198387096</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="2"/>
-        <v>6.0203841198387096</v>
-      </c>
-      <c r="E15" s="1">
+        <v>12.040768239677419</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="3"/>
-        <v>12.040768239677419</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="4"/>
         <v>89.281385576783379</v>
       </c>
       <c r="G15" s="2">
@@ -1255,26 +1281,26 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.98356164383561651</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>95.31450969600715</v>
+      </c>
+      <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>95.31450969600715</v>
-      </c>
-      <c r="D16" s="1">
+        <v>6.228983976212163</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="2"/>
-        <v>6.228983976212163</v>
-      </c>
-      <c r="E16" s="1">
+        <v>12.457967952424326</v>
+      </c>
+      <c r="F16" s="1">
         <f t="shared" si="3"/>
-        <v>12.457967952424326</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="4"/>
         <v>89.085525719794987</v>
       </c>
       <c r="G16" s="2">
@@ -1291,26 +1317,26 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.98082191780821926</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>95.32725139848317</v>
+      </c>
+      <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>95.32725139848317</v>
-      </c>
-      <c r="D17" s="1">
+        <v>6.5475863574934294</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="2"/>
-        <v>6.5475863574934294</v>
-      </c>
-      <c r="E17" s="1">
+        <v>13.095172714986859</v>
+      </c>
+      <c r="F17" s="1">
         <f t="shared" si="3"/>
-        <v>13.095172714986859</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="4"/>
         <v>88.779665040989741</v>
       </c>
       <c r="G17" s="2">
@@ -1327,26 +1353,26 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.97808219178082201</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>95.339994804277865</v>
+      </c>
+      <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>95.339994804277865</v>
-      </c>
-      <c r="D18" s="1">
+        <v>6.4375846328169928</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="2"/>
-        <v>6.4375846328169928</v>
-      </c>
-      <c r="E18" s="1">
+        <v>12.875169265633986</v>
+      </c>
+      <c r="F18" s="1">
         <f t="shared" si="3"/>
-        <v>12.875169265633986</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="4"/>
         <v>88.902410171460872</v>
       </c>
       <c r="G18" s="2">
@@ -1363,26 +1389,26 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.97534246575342476</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>95.35273991361889</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>95.35273991361889</v>
-      </c>
-      <c r="D19" s="1">
+        <v>6.1121399533969338</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>6.1121399533969338</v>
-      </c>
-      <c r="E19" s="1">
+        <v>12.224279906793868</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="3"/>
-        <v>12.224279906793868</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="4"/>
         <v>89.240599960221957</v>
       </c>
       <c r="G19" s="2">
@@ -1399,26 +1425,26 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.97260273972602751</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>95.365486726733991</v>
+      </c>
+      <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>95.365486726733991</v>
-      </c>
-      <c r="D20" s="1">
+        <v>6.1113228787560985</v>
+      </c>
+      <c r="E20" s="1">
         <f t="shared" si="2"/>
-        <v>6.1113228787560985</v>
-      </c>
-      <c r="E20" s="1">
+        <v>12.222645757512197</v>
+      </c>
+      <c r="F20" s="1">
         <f t="shared" si="3"/>
-        <v>12.222645757512197</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="4"/>
         <v>89.254163847977892</v>
       </c>
       <c r="G20" s="2">
@@ -1435,14 +1461,14 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.96986301369863026</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95.378235243850952</v>
       </c>
       <c r="D21" s="1">
@@ -1471,14 +1497,14 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.96712328767123301</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95.390985465197545</v>
       </c>
       <c r="D22" s="1">
@@ -1507,14 +1533,14 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.96438356164383576</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95.403737391001584</v>
       </c>
       <c r="D23" s="1">
@@ -1543,14 +1569,14 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.96164383561643851</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95.416491021490941</v>
       </c>
       <c r="D24" s="1">
@@ -1579,14 +1605,14 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.95890410958904126</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95.429246356893501</v>
       </c>
       <c r="D25" s="1">
@@ -1615,14 +1641,14 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.95616438356164402</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95.442003397437148</v>
       </c>
       <c r="D26" s="1">
@@ -1651,14 +1677,14 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.95342465753424677</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95.454762143349853</v>
       </c>
       <c r="D27" s="1">
@@ -1687,14 +1713,14 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.95068493150684952</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95.467522594859616</v>
       </c>
       <c r="D28" s="1">
@@ -1723,14 +1749,14 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.94794520547945227</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95.480284752194379</v>
       </c>
       <c r="D29" s="1">
@@ -1759,14 +1785,14 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.94520547945205502</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95.493048615582211</v>
       </c>
       <c r="D30" s="1">
@@ -1795,14 +1821,14 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.94246575342465777</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95.505814185251197</v>
       </c>
       <c r="D31" s="1">
@@ -1831,14 +1857,14 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.93972602739726052</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95.518581461429392</v>
       </c>
       <c r="D32" s="1">
@@ -1867,14 +1893,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.93698630136986327</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95.531350444344966</v>
       </c>
       <c r="D33" s="1">

--- a/PDCA/resources/cppi.xlsx
+++ b/PDCA/resources/cppi.xlsx
@@ -960,7 +960,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,6 +1098,9 @@
       <c r="G10" s="2">
         <v>102</v>
       </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1152,11 +1155,11 @@
         <v>5.5208377482354649</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ref="E12:E20" si="2">MIN($B$5*D12,$B$6*I12)</f>
+        <f>MIN($B$5*D12,$B$6*I12)</f>
         <v>11.04167549647093</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ref="F12:F20" si="3">I12-E12</f>
+        <f>I12-E12</f>
         <v>89.742722166501125</v>
       </c>
       <c r="G12" s="2">
@@ -1176,11 +1179,11 @@
         <v>4</v>
       </c>
       <c r="B13" s="5">
-        <f t="shared" ref="B13:B33" si="4">B12-($B$3/$B$7)</f>
+        <f t="shared" ref="B13:B33" si="2">B12-($B$3/$B$7)</f>
         <v>0.99178082191780825</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
+        <f>($B$1)/((1+$B$2)^B13)</f>
         <v>95.276294806214409</v>
       </c>
       <c r="D13" s="1">
@@ -1188,22 +1191,22 @@
         <v>6.0219940599869801</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="2"/>
+        <f>MIN($B$5*D13,$B$6*I13)</f>
         <v>12.04398811997396</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="3"/>
+        <f>I13-E13</f>
         <v>89.254300746227429</v>
       </c>
       <c r="G13" s="2">
         <v>115</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" ref="H13:H33" si="5">(G13/G12)-1</f>
+        <f t="shared" ref="H13:H33" si="3">(G13/G12)-1</f>
         <v>4.5454545454545414E-2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ref="I13:I20" si="6">E12*(1+H13)+F12*(1+$B$2)^(1/$B$7)</f>
+        <f t="shared" ref="I13:I20" si="4">E12*(1+H13)+F12*(1+$B$2)^(1/$B$7)</f>
         <v>101.29828886620139</v>
       </c>
     </row>
@@ -1212,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.989041095890411</v>
       </c>
       <c r="C14" s="1">
@@ -1220,26 +1223,26 @@
         <v>95.289031400100399</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="1"/>
+        <f>MAX(I14-C14,0)</f>
         <v>6.0211890361047864</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E12:E20" si="5">MIN($B$5*D14,$B$6*I14)</f>
         <v>12.042378072209573</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F12:F20" si="6">I14-E14</f>
         <v>89.267842363995612</v>
       </c>
       <c r="G14" s="2">
         <v>115</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>101.31022043620519</v>
       </c>
     </row>
@@ -1248,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="5">
-        <f t="shared" si="4"/>
+        <f>B14-($B$3/$B$7)</f>
         <v>0.98630136986301375</v>
       </c>
       <c r="C15" s="1">
@@ -1260,22 +1263,22 @@
         <v>6.0203841198387096</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12.040768239677419</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>89.281385576783379</v>
       </c>
       <c r="G15" s="2">
         <v>115</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>101.3221538164608</v>
       </c>
     </row>
@@ -1284,7 +1287,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.98356164383561651</v>
       </c>
       <c r="C16" s="1">
@@ -1292,26 +1295,26 @@
         <v>95.31450969600715</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="1"/>
+        <f>MAX(I16-C16,0)</f>
         <v>6.228983976212163</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12.457967952424326</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>89.085525719794987</v>
       </c>
       <c r="G16" s="2">
         <v>117</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.7391304347825987E-2</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>101.54349367221931</v>
       </c>
     </row>
@@ -1320,7 +1323,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.98082191780821926</v>
       </c>
       <c r="C17" s="1">
@@ -1332,22 +1335,22 @@
         <v>6.5475863574934294</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>13.095172714986859</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>88.779665040989741</v>
       </c>
       <c r="G17" s="2">
         <v>120</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.564102564102555E-2</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>101.8748377559766</v>
       </c>
     </row>
@@ -1356,7 +1359,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.97808219178082201</v>
       </c>
       <c r="C18" s="1">
@@ -1368,22 +1371,22 @@
         <v>6.4375846328169928</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12.875169265633986</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>88.902410171460872</v>
       </c>
       <c r="G18" s="2">
         <v>119</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-8.3333333333333037E-3</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>101.77757943709486</v>
       </c>
     </row>
@@ -1392,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.97534246575342476</v>
       </c>
       <c r="C19" s="1">
@@ -1404,22 +1407,22 @@
         <v>6.1121399533969338</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12.224279906793868</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>89.240599960221957</v>
       </c>
       <c r="G19" s="2">
         <v>116</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-2.5210084033613467E-2</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>101.46487986701582</v>
       </c>
     </row>
@@ -1428,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.97260273972602751</v>
       </c>
       <c r="C20" s="1">
@@ -1440,22 +1443,22 @@
         <v>6.1113228787560985</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12.222645757512197</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>89.254163847977892</v>
       </c>
       <c r="G20" s="2">
         <v>116</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>101.47680960549009</v>
       </c>
     </row>
@@ -1464,7 +1467,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.96986301369863026</v>
       </c>
       <c r="C21" s="1">
@@ -1487,7 +1490,7 @@
         <v>116</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I21" s="1">
@@ -1500,7 +1503,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.96712328767123301</v>
       </c>
       <c r="C22" s="1">
@@ -1523,7 +1526,7 @@
         <v>114</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-1.7241379310344862E-2</v>
       </c>
       <c r="I22" s="1">
@@ -1536,7 +1539,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.96438356164383576</v>
       </c>
       <c r="C23" s="1">
@@ -1559,7 +1562,7 @@
         <v>118</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.5087719298245723E-2</v>
       </c>
       <c r="I23" s="1">
@@ -1572,7 +1575,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.96164383561643851</v>
       </c>
       <c r="C24" s="1">
@@ -1595,7 +1598,7 @@
         <v>120</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.6949152542372836E-2</v>
       </c>
       <c r="I24" s="1">
@@ -1608,7 +1611,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.95890410958904126</v>
       </c>
       <c r="C25" s="1">
@@ -1631,7 +1634,7 @@
         <v>125</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="I25" s="1">
@@ -1644,7 +1647,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.95616438356164402</v>
       </c>
       <c r="C26" s="1">
@@ -1667,7 +1670,7 @@
         <v>130</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="I26" s="1">
@@ -1680,7 +1683,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.95342465753424677</v>
       </c>
       <c r="C27" s="1">
@@ -1703,7 +1706,7 @@
         <v>123</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-5.3846153846153877E-2</v>
       </c>
       <c r="I27" s="1">
@@ -1716,7 +1719,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.95068493150684952</v>
       </c>
       <c r="C28" s="1">
@@ -1739,7 +1742,7 @@
         <v>119</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-3.2520325203251987E-2</v>
       </c>
       <c r="I28" s="1">
@@ -1752,7 +1755,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.94794520547945227</v>
       </c>
       <c r="C29" s="1">
@@ -1775,7 +1778,7 @@
         <v>116</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-2.5210084033613467E-2</v>
       </c>
       <c r="I29" s="1">
@@ -1788,7 +1791,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.94520547945205502</v>
       </c>
       <c r="C30" s="1">
@@ -1811,7 +1814,7 @@
         <v>115</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-8.6206896551723755E-3</v>
       </c>
       <c r="I30" s="1">
@@ -1824,7 +1827,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.94246575342465777</v>
       </c>
       <c r="C31" s="1">
@@ -1847,7 +1850,7 @@
         <v>114</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-8.6956521739129933E-3</v>
       </c>
       <c r="I31" s="1">
@@ -1860,7 +1863,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.93972602739726052</v>
       </c>
       <c r="C32" s="1">
@@ -1883,7 +1886,7 @@
         <v>113</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-8.7719298245614308E-3</v>
       </c>
       <c r="I32" s="1">
@@ -1896,7 +1899,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.93698630136986327</v>
       </c>
       <c r="C33" s="1">
@@ -1919,7 +1922,7 @@
         <v>120</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.1946902654867353E-2</v>
       </c>
       <c r="I33" s="1">
